--- a/项目文档/DB设计/DB设计.xlsx
+++ b/项目文档/DB设计/DB设计.xlsx
@@ -3,15 +3,26 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DDBB10E5-7273-42BF-BB6A-774C6325FC16}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9A8D62FE-B8E6-4E10-AD4B-1B5F5E8FBC7D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
     <sheet name="user_tbl" sheetId="2" r:id="rId2"/>
-    <sheet name="数据库表模板" sheetId="3" r:id="rId3"/>
+    <sheet name="code_level" sheetId="4" r:id="rId3"/>
+    <sheet name="invite_code" sheetId="5" r:id="rId4"/>
+    <sheet name="login_details" sheetId="6" r:id="rId5"/>
+    <sheet name="package" sheetId="7" r:id="rId6"/>
+    <sheet name="package_details" sheetId="8" r:id="rId7"/>
+    <sheet name="sales_invite_code" sheetId="9" r:id="rId8"/>
+    <sheet name="dictionary" sheetId="10" r:id="rId9"/>
+    <sheet name="share_details" sheetId="11" r:id="rId10"/>
+    <sheet name="数据库表模板" sheetId="3" r:id="rId11"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId12"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -22,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="117">
   <si>
     <t>寒杉平台数据库设计</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -108,19 +119,334 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>userid</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Char</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户id，唯一性。</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>code_level</t>
+  </si>
+  <si>
+    <t>邀请码等级</t>
+  </si>
+  <si>
+    <t>invite_number</t>
+  </si>
+  <si>
+    <t>邀请上限</t>
+  </si>
+  <si>
+    <t>rebate_rate</t>
+  </si>
+  <si>
+    <t>返佣比例</t>
+  </si>
+  <si>
+    <t>created_at</t>
+  </si>
+  <si>
+    <t>updated_at</t>
+  </si>
+  <si>
+    <t>invite_code</t>
+  </si>
+  <si>
+    <t>level_id</t>
+  </si>
+  <si>
+    <t>邀请码</t>
+  </si>
+  <si>
+    <t>邀请码表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>invite_code</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>login_latitude</t>
+  </si>
+  <si>
+    <t>login_longtitude</t>
+  </si>
+  <si>
+    <t>用户id</t>
+  </si>
+  <si>
+    <t>登陆维度</t>
+  </si>
+  <si>
+    <t>登陆经度</t>
+  </si>
+  <si>
+    <t>login_details</t>
+  </si>
+  <si>
+    <t>登录数据表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>remains</t>
+  </si>
+  <si>
+    <t>余额</t>
+  </si>
+  <si>
+    <t>integral</t>
+  </si>
+  <si>
+    <t>积分</t>
+  </si>
+  <si>
+    <t>免押金次数</t>
+  </si>
+  <si>
+    <t>优惠券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>deposite_free_times</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>package</t>
+  </si>
+  <si>
+    <t>钱包表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请码等级表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>details_type</t>
+  </si>
+  <si>
+    <t>钱包细节类型</t>
+  </si>
+  <si>
+    <t>变换数值</t>
+  </si>
+  <si>
+    <t>change_values</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>curent_values</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前余额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>package_details</t>
+  </si>
+  <si>
+    <t>钱包明细数据表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>code_id</t>
+  </si>
+  <si>
+    <t>邀请码id</t>
+  </si>
+  <si>
+    <t>可空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>upper_code_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级邀请码id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可为空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sales_invite_code</t>
+  </si>
+  <si>
+    <t>销售邀请码表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dictionary</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信唯一标志</t>
+  </si>
+  <si>
+    <t>昵称</t>
+  </si>
+  <si>
+    <t>真实名</t>
+  </si>
+  <si>
+    <t>用户密码</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>电话</t>
+  </si>
+  <si>
+    <t>城市</t>
+  </si>
+  <si>
+    <t>身份证号码</t>
+  </si>
+  <si>
+    <t>银行卡号码</t>
+  </si>
+  <si>
+    <t>user_pic_url</t>
+  </si>
+  <si>
+    <t>用户头像</t>
+  </si>
+  <si>
+    <t>user_real_pic</t>
+  </si>
+  <si>
+    <t>用户真实生活照</t>
+  </si>
+  <si>
+    <t>id_pic0</t>
+  </si>
+  <si>
+    <t>身份证正面照</t>
+  </si>
+  <si>
+    <t>id_pic1</t>
+  </si>
+  <si>
+    <t>身份证反面照</t>
+  </si>
+  <si>
+    <t>user_status_id</t>
+  </si>
+  <si>
+    <t>用户状态id</t>
+  </si>
+  <si>
+    <t>share_type_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>share_click</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>share_details</t>
+  </si>
+  <si>
+    <t>分享信息数据表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>real_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nick_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>city</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank_card</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>identity_card</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank_region</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录信息数据表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱包明细表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0.0906A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加相关数据库表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱立人、顾悦</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -128,7 +454,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +485,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -197,7 +531,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -205,16 +539,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -229,11 +558,22 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="标题 1" xfId="1" builtinId="16"/>
     <cellStyle name="标题 2" xfId="2" builtinId="17"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -246,6 +586,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="login_details"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -511,17 +866,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="13.625" style="5" customWidth="1"/>
     <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="26.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.625" style="3" customWidth="1"/>
     <col min="4" max="5" width="13.625" customWidth="1"/>
     <col min="7" max="7" width="13.625" customWidth="1"/>
     <col min="8" max="8" width="26.625" customWidth="1"/>
@@ -529,22 +884,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -553,24 +908,24 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
@@ -579,7 +934,7 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="11" t="s">
         <v>14</v>
       </c>
       <c r="H3" t="s">
@@ -587,13 +942,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
@@ -601,11 +956,401 @@
       </c>
       <c r="E4" t="s">
         <v>6</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G7" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G8" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G9" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G10" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G11" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G3" location="user_tbl!A1" display="user_tbl" xr:uid="{2D370C05-2EC6-4B91-B754-2C24AF33D15A}"/>
+    <hyperlink ref="G4" location="code_level!A1" display="code_level" xr:uid="{223D7140-3ACB-436F-B87F-5D562BD1CD56}"/>
+    <hyperlink ref="G5" location="invite_code!A1" display="invite_code" xr:uid="{90B6A574-D70B-4E62-90FF-1AC2780FDF33}"/>
+    <hyperlink ref="G6" location="login_details!A1" display="login_details" xr:uid="{DF6974F0-A93D-4955-8473-9AE74FB2C88C}"/>
+    <hyperlink ref="G7" location="package!A1" display="package" xr:uid="{C837545B-3A2F-446A-9964-5A730917EDA3}"/>
+    <hyperlink ref="G8" location="package_details!A1" display="package_details" xr:uid="{23FAC444-0415-4740-B07B-B9E54227773D}"/>
+    <hyperlink ref="G9" location="sales_invite_code!A1" display="sales_invite_code" xr:uid="{6B51479D-AC52-4A98-A1A8-9B7DE84BD9CF}"/>
+    <hyperlink ref="G10" location="dictionary!A1" display="dictionary" xr:uid="{0DE8DCBA-9233-46A8-AB6D-81162BA627A1}"/>
+    <hyperlink ref="G11" location="share_details!A1" display="share_details" xr:uid="{2CB79817-AF75-46BA-A080-A7C782CF79F5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5CCDBC-2A67-46A9-9003-47EC9B339AB3}">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="13.625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="26.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9722C2AB-AD80-4AF5-B27A-FD632FB29D0C}">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="13.625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="26.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -615,34 +1360,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1A8C16-DB95-4FF6-A244-A9F986C2F743}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="13.625" style="5" customWidth="1"/>
     <col min="2" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="26.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="26.625" style="3" customWidth="1"/>
     <col min="7" max="7" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -654,10 +1399,10 @@
       <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -665,27 +1410,211 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="B14" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
+      <c r="B15" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>17</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>18</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="10"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>19</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="10"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -697,30 +1626,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9722C2AB-AD80-4AF5-B27A-FD632FB29D0C}">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC7BD82-66FE-49CC-AAEA-7B1D80E30953}">
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="13.625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="26.625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.625" style="9" customWidth="1"/>
+    <col min="1" max="5" width="13.625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="26.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="A1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -738,19 +1667,1205 @@
       <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B53213E-1EC0-48DC-A0EE-D9DA04B29A66}">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="13.625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="26.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2135027F-B859-4BAA-8443-42B66D2E7420}">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="13.625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="26.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10444DF-0843-450E-B47C-CB308FE4891E}">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="13.625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="26.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E21B046-85C0-419F-B938-1D035D5387E9}">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="13.625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="26.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="F28" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E23299-8DD9-45D4-BCF1-D60DE9A64A80}">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="13.625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="26.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449AE80D-DBCF-4B35-A7E6-AD40196C880B}">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="13.625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="26.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>